--- a/sputnik/personal/ee/67ee.xlsx
+++ b/sputnik/personal/ee/67ee.xlsx
@@ -16,23 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -42,7 +33,28 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t>Начислены пени за просрочку оплаты за ЭЭ на 410 дн  с 11.08.2018 по 26.09.2019 (3318,11 х 370дн х0,1%=1227,70)</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>итого с пенями</t>
+  </si>
+  <si>
+    <t>к доплате</t>
+  </si>
+  <si>
+    <t>Начислены пени за просрочку оплаты за ЭЭ на 410 дн  с 11.08.2018 по 26.09.2019 (3318,11 х 370дн х 0,1% = 1227,70)</t>
   </si>
 </sst>
 </file>
@@ -50,7 +62,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -92,7 +104,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -107,7 +119,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -134,34 +146,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -199,10 +183,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -212,7 +195,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -221,34 +204,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -257,13 +213,13 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -573,10 +529,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -587,257 +543,177 @@
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
+      <c r="H1" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>43232</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>4320</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>43323</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>4557</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <f>SUM(C3,-C2)</f>
         <v>237</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>4.5</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="8">
         <f>PRODUCT(D3,E3)</f>
         <v>1066.5</v>
       </c>
+      <c r="G3" s="5">
+        <v>1066.5</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1066.5</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="20"/>
+      <c r="A4" s="9">
+        <v>43734</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5296</v>
+      </c>
+      <c r="D4" s="2">
+        <f>SUM(C4,-C3)</f>
+        <v>739</v>
+      </c>
+      <c r="E4" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F4" s="8">
+        <f>PRODUCT(D4,E4)</f>
+        <v>3318.11</v>
+      </c>
+      <c r="G4" s="5">
+        <v>3318.11</v>
+      </c>
+      <c r="H4" s="5">
+        <v>3322</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21">
+      <c r="A5" s="9"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="5">
+        <f>SUM(G2:G4)</f>
+        <v>4384.6100000000006</v>
+      </c>
+      <c r="H5" s="5">
+        <f>SUM(H2:H4)</f>
+        <v>4388.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
         <v>43734</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>5296</v>
-      </c>
-      <c r="D5" s="3">
-        <f>SUM(C5,-C3)</f>
-        <v>739</v>
-      </c>
-      <c r="E5" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F5" s="20">
-        <f>PRODUCT(D5,E5)</f>
-        <v>3318.11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22">
-        <v>43734</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="6"/>
+      <c r="B6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5">
+        <v>1227.7</v>
+      </c>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="6"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="5">
+        <f>SUM(G5:G6)</f>
+        <v>5612.31</v>
+      </c>
+      <c r="H7" s="5">
+        <f>SUM(H5:H6)</f>
+        <v>4388.5</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="6"/>
-      <c r="H8" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="16"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="5">
+        <f>SUM(G7,-H7)</f>
+        <v>1223.8100000000004</v>
+      </c>
+      <c r="H8" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/sputnik/personal/ee/67ee.xlsx
+++ b/sputnik/personal/ee/67ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -45,16 +45,16 @@
     <t>оплачено</t>
   </si>
   <si>
-    <t>итого за период</t>
-  </si>
-  <si>
     <t>итого с пенями</t>
   </si>
   <si>
-    <t>к доплате</t>
-  </si>
-  <si>
     <t>Начислены пени за просрочку оплаты за ЭЭ на 410 дн  с 11.08.2018 по 26.09.2019 (3318,11 х 370дн х 0,1% = 1227,70)</t>
+  </si>
+  <si>
+    <t>оплачены пени</t>
+  </si>
+  <si>
+    <t>остаток</t>
   </si>
 </sst>
 </file>
@@ -98,14 +98,12 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -183,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -210,8 +208,20 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -529,10 +539,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -649,75 +659,211 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="8" t="s">
-        <v>9</v>
+      <c r="A5" s="9">
+        <v>43927</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5496</v>
+      </c>
+      <c r="D5" s="2">
+        <f>SUM(C5,-C4)</f>
+        <v>200</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F5" s="8">
+        <f>PRODUCT(D5,E5)</f>
+        <v>898</v>
       </c>
       <c r="G5" s="5">
-        <f>SUM(G2:G4)</f>
-        <v>4384.6100000000006</v>
+        <v>898</v>
       </c>
       <c r="H5" s="5">
-        <f>SUM(H2:H4)</f>
-        <v>4388.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+        <v>1772.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>43927</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5691</v>
+      </c>
+      <c r="D6" s="2">
+        <f>SUM(C6,-C5)</f>
+        <v>195</v>
+      </c>
+      <c r="E6" s="10">
+        <v>4.49</v>
+      </c>
+      <c r="F6" s="8">
+        <f>PRODUCT(D6,E6)</f>
+        <v>875.55000000000007</v>
+      </c>
+      <c r="G6" s="5">
+        <v>875.55</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
         <v>43734</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5">
+      <c r="B7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5">
         <v>1227.7</v>
       </c>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="5">
-        <f>SUM(G5:G6)</f>
-        <v>5612.31</v>
-      </c>
-      <c r="H7" s="5">
-        <f>SUM(H5:H6)</f>
-        <v>4388.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>43927</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
       <c r="F8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="5">
-        <f>SUM(G7,-H7)</f>
-        <v>1223.8100000000004</v>
-      </c>
-      <c r="H8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5">
+        <v>1227.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>43934</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5891</v>
+      </c>
+      <c r="D9" s="2">
+        <f>SUM(C9,-C6)</f>
+        <v>200</v>
+      </c>
+      <c r="E9" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F9" s="8">
+        <f>PRODUCT(D9,E9)</f>
+        <v>898</v>
+      </c>
+      <c r="G9" s="5">
+        <v>898</v>
+      </c>
+      <c r="H9" s="5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>43941</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6091</v>
+      </c>
+      <c r="D10" s="2">
+        <f>SUM(C10,-C9)</f>
+        <v>200</v>
+      </c>
+      <c r="E10" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="8">
+        <f>PRODUCT(D10,E10)</f>
+        <v>898</v>
+      </c>
+      <c r="G10" s="5">
+        <v>898</v>
+      </c>
+      <c r="H10" s="5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>43948</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>6291</v>
+      </c>
+      <c r="D11" s="2">
+        <f>SUM(C11,-C10)</f>
+        <v>200</v>
+      </c>
+      <c r="E11" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F11" s="8">
+        <f>PRODUCT(D11,E11)</f>
+        <v>898</v>
+      </c>
+      <c r="G11" s="5">
+        <v>898</v>
+      </c>
+      <c r="H11" s="5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="5">
+        <f>SUM(G2:G11)</f>
+        <v>10079.86</v>
+      </c>
+      <c r="H12" s="5">
+        <f>SUM(H2:H11)</f>
+        <v>10088.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5">
+        <f>SUM(H12,-G12)</f>
+        <v>8.6399999999994179</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/67ee.xlsx
+++ b/sputnik/personal/ee/67ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -181,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -223,14 +223,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -539,10 +533,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -716,12 +710,12 @@
       <c r="A7" s="11">
         <v>43734</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5">
         <v>1227.7</v>
@@ -732,10 +726,18 @@
       <c r="A8" s="11">
         <v>43927</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
+      <c r="B8" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0</v>
+      </c>
+      <c r="D8" s="15">
+        <v>0</v>
+      </c>
+      <c r="E8" s="15">
+        <v>0</v>
+      </c>
       <c r="F8" s="5" t="s">
         <v>11</v>
       </c>
@@ -829,35 +831,83 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="5" t="s">
+      <c r="A12" s="9">
+        <v>43984</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>135</v>
+      </c>
+      <c r="E12" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="8">
+        <f>PRODUCT(D12,E12)</f>
+        <v>606.15</v>
+      </c>
+      <c r="G12" s="5">
+        <v>717.93</v>
+      </c>
+      <c r="H12" s="5">
+        <v>717.93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>46</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="8">
+        <f>PRODUCT(D13,E13)</f>
+        <v>111.78</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="5">
-        <f>SUM(G2:G11)</f>
-        <v>10079.86</v>
-      </c>
-      <c r="H12" s="5">
-        <f>SUM(H2:H11)</f>
-        <v>10088.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="5" t="s">
+      <c r="G14" s="5">
+        <f>SUM(G2:G13)</f>
+        <v>10797.79</v>
+      </c>
+      <c r="H14" s="5">
+        <f>SUM(H2:H13)</f>
+        <v>10806.43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5">
-        <f>SUM(H12,-G12)</f>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5">
+        <f>SUM(H14,-G14)</f>
         <v>8.6399999999994179</v>
       </c>
     </row>

--- a/sputnik/personal/ee/67ee.xlsx
+++ b/sputnik/personal/ee/67ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -214,6 +214,9 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -222,9 +225,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -533,10 +533,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -710,12 +710,12 @@
       <c r="A7" s="11">
         <v>43734</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5">
         <v>1227.7</v>
@@ -726,16 +726,16 @@
       <c r="A8" s="11">
         <v>43927</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="15">
-        <v>0</v>
-      </c>
-      <c r="D8" s="15">
-        <v>0</v>
-      </c>
-      <c r="E8" s="15">
+      <c r="B8" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12">
         <v>0</v>
       </c>
       <c r="F8" s="5" t="s">
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="D12" s="2">
         <v>135</v>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="2">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D13" s="2">
         <v>46</v>
@@ -879,35 +879,86 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="5" t="s">
+      <c r="A14" s="9">
+        <v>44020</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>241</v>
+      </c>
+      <c r="D14" s="2">
+        <f>SUM(C14,-C12)</f>
+        <v>106</v>
+      </c>
+      <c r="E14" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="8">
+        <f>PRODUCT(D14,E14)</f>
+        <v>499.26</v>
+      </c>
+      <c r="G14" s="5">
+        <f>SUM(F14,F15)</f>
+        <v>545.16</v>
+      </c>
+      <c r="H14" s="5">
+        <v>545.16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>64</v>
+      </c>
+      <c r="D15" s="2">
+        <f>SUM(C15,-C13)</f>
+        <v>18</v>
+      </c>
+      <c r="E15" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="8">
+        <f>PRODUCT(D15,E15)</f>
+        <v>45.9</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="5">
-        <f>SUM(G2:G13)</f>
-        <v>10797.79</v>
-      </c>
-      <c r="H14" s="5">
-        <f>SUM(H2:H13)</f>
-        <v>10806.43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="5" t="s">
+      <c r="G16" s="5">
+        <f>SUM(G2:G15)</f>
+        <v>11342.95</v>
+      </c>
+      <c r="H16" s="5">
+        <f>SUM(H2:H15)</f>
+        <v>11351.59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5">
-        <f>SUM(H14,-G14)</f>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5">
+        <f>SUM(H16,-G16)</f>
         <v>8.6399999999994179</v>
       </c>
     </row>

--- a/sputnik/personal/ee/67ee.xlsx
+++ b/sputnik/personal/ee/67ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -533,10 +533,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>4.49</v>
       </c>
       <c r="F9" s="8">
-        <f>PRODUCT(D9,E9)</f>
+        <f t="shared" ref="F9:F15" si="0">PRODUCT(D9,E9)</f>
         <v>898</v>
       </c>
       <c r="G9" s="5">
@@ -792,7 +792,7 @@
         <v>4.49</v>
       </c>
       <c r="F10" s="8">
-        <f>PRODUCT(D10,E10)</f>
+        <f t="shared" si="0"/>
         <v>898</v>
       </c>
       <c r="G10" s="5">
@@ -820,7 +820,7 @@
         <v>4.49</v>
       </c>
       <c r="F11" s="8">
-        <f>PRODUCT(D11,E11)</f>
+        <f t="shared" si="0"/>
         <v>898</v>
       </c>
       <c r="G11" s="5">
@@ -847,7 +847,7 @@
         <v>4.49</v>
       </c>
       <c r="F12" s="8">
-        <f>PRODUCT(D12,E12)</f>
+        <f t="shared" si="0"/>
         <v>606.15</v>
       </c>
       <c r="G12" s="5">
@@ -872,7 +872,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F13" s="8">
-        <f>PRODUCT(D13,E13)</f>
+        <f t="shared" si="0"/>
         <v>111.78</v>
       </c>
       <c r="G13" s="5"/>
@@ -896,7 +896,7 @@
         <v>4.71</v>
       </c>
       <c r="F14" s="8">
-        <f>PRODUCT(D14,E14)</f>
+        <f t="shared" si="0"/>
         <v>499.26</v>
       </c>
       <c r="G14" s="5">
@@ -923,43 +923,94 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="8">
-        <f>PRODUCT(D15,E15)</f>
+        <f t="shared" si="0"/>
         <v>45.9</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="5" t="s">
+      <c r="A16" s="9">
+        <v>44095</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>607</v>
+      </c>
+      <c r="D16" s="2">
+        <f>SUM(C16,-C14)</f>
+        <v>366</v>
+      </c>
+      <c r="E16" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" ref="F16:F17" si="1">PRODUCT(D16,E16)</f>
+        <v>1723.86</v>
+      </c>
+      <c r="G16" s="5">
+        <f>SUM(F16,F17)</f>
+        <v>1930.4099999999999</v>
+      </c>
+      <c r="H16" s="5">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>145</v>
+      </c>
+      <c r="D17" s="2">
+        <f>SUM(C17,-C15)</f>
+        <v>81</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="1"/>
+        <v>206.54999999999998</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="5">
-        <f>SUM(G2:G15)</f>
-        <v>11342.95</v>
-      </c>
-      <c r="H16" s="5">
-        <f>SUM(H2:H15)</f>
-        <v>11351.59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="5" t="s">
+      <c r="G18" s="5">
+        <f>SUM(G2:G17)</f>
+        <v>13273.36</v>
+      </c>
+      <c r="H18" s="5">
+        <f>SUM(H2:H17)</f>
+        <v>13851.59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5">
-        <f>SUM(H16,-G16)</f>
-        <v>8.6399999999994179</v>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5">
+        <f>SUM(H18,-G18)</f>
+        <v>578.22999999999956</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/67ee.xlsx
+++ b/sputnik/personal/ee/67ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -64,7 +64,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +104,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -181,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -225,6 +232,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -533,10 +543,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="C18" sqref="C18:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -981,35 +991,86 @@
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="5" t="s">
+      <c r="A18" s="9">
+        <v>44123</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="16">
+        <v>607</v>
+      </c>
+      <c r="D18" s="16">
+        <f>SUM(C18,-C16)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" ref="F18:F19" si="2">PRODUCT(D18,E18)</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
+        <f>SUM(F18,F19)</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="16">
+        <v>145</v>
+      </c>
+      <c r="D19" s="16">
+        <f>SUM(C19,-C17)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G20" s="5">
         <f>SUM(G2:G17)</f>
         <v>13273.36</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H20" s="5">
         <f>SUM(H2:H17)</f>
         <v>13851.59</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="5" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5">
-        <f>SUM(H18,-G18)</f>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5">
+        <f>SUM(H20,-G20)</f>
         <v>578.22999999999956</v>
       </c>
     </row>

--- a/sputnik/personal/ee/67ee.xlsx
+++ b/sputnik/personal/ee/67ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -48,12 +48,6 @@
     <t>итого с пенями</t>
   </si>
   <si>
-    <t>Начислены пени за просрочку оплаты за ЭЭ на 410 дн  с 11.08.2018 по 26.09.2019 (3318,11 х 370дн х 0,1% = 1227,70)</t>
-  </si>
-  <si>
-    <t>оплачены пени</t>
-  </si>
-  <si>
     <t>остаток</t>
   </si>
 </sst>
@@ -64,7 +58,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,13 +85,6 @@
       <b/>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -188,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -218,22 +205,19 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -546,7 +530,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:D19"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -716,65 +700,81 @@
       </c>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
-        <v>43734</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="5"/>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>43934</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5891</v>
+      </c>
+      <c r="D7" s="2">
+        <f>SUM(C7,-C6)</f>
+        <v>200</v>
+      </c>
+      <c r="E7" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" ref="F7:F13" si="0">PRODUCT(D7,E7)</f>
+        <v>898</v>
+      </c>
       <c r="G7" s="5">
-        <v>1227.7</v>
-      </c>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <v>43927</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="12">
-        <v>0</v>
-      </c>
-      <c r="D8" s="12">
-        <v>0</v>
-      </c>
-      <c r="E8" s="12">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="5"/>
+        <v>898</v>
+      </c>
+      <c r="H7" s="5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>43941</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>6091</v>
+      </c>
+      <c r="D8" s="2">
+        <f>SUM(C8,-C7)</f>
+        <v>200</v>
+      </c>
+      <c r="E8" s="5">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" si="0"/>
+        <v>898</v>
+      </c>
+      <c r="G8" s="5">
+        <v>898</v>
+      </c>
       <c r="H8" s="5">
-        <v>1227.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
-        <v>43934</v>
+        <v>43948</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="2">
-        <v>5891</v>
+        <v>6291</v>
       </c>
       <c r="D9" s="2">
-        <f>SUM(C9,-C6)</f>
+        <f>SUM(C9,-C8)</f>
         <v>200</v>
       </c>
       <c r="E9" s="5">
         <v>4.49</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" ref="F9:F15" si="0">PRODUCT(D9,E9)</f>
+        <f t="shared" si="0"/>
         <v>898</v>
       </c>
       <c r="G9" s="5">
@@ -784,87 +784,81 @@
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
-        <v>43941</v>
+        <v>43984</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>6091</v>
+        <v>135</v>
       </c>
       <c r="D10" s="2">
-        <f>SUM(C10,-C9)</f>
-        <v>200</v>
+        <v>135</v>
       </c>
       <c r="E10" s="5">
         <v>4.49</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" si="0"/>
-        <v>898</v>
+        <v>606.15</v>
       </c>
       <c r="G10" s="5">
-        <v>898</v>
+        <v>717.93</v>
       </c>
       <c r="H10" s="5">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>43948</v>
-      </c>
+        <v>717.93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
       <c r="B11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="2">
-        <v>6291</v>
+        <v>46</v>
       </c>
       <c r="D11" s="2">
-        <f>SUM(C11,-C10)</f>
-        <v>200</v>
+        <v>46</v>
       </c>
       <c r="E11" s="5">
-        <v>4.49</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F11" s="8">
         <f t="shared" si="0"/>
-        <v>898</v>
-      </c>
-      <c r="G11" s="5">
-        <v>898</v>
-      </c>
-      <c r="H11" s="5">
-        <v>900</v>
-      </c>
+        <v>111.78</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
-        <v>43984</v>
+        <v>44020</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>135</v>
+        <v>241</v>
       </c>
       <c r="D12" s="2">
-        <v>135</v>
+        <f t="shared" ref="D12:D17" si="1">SUM(C12,-C10)</f>
+        <v>106</v>
       </c>
       <c r="E12" s="5">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" si="0"/>
-        <v>606.15</v>
+        <v>499.26</v>
       </c>
       <c r="G12" s="5">
-        <v>717.93</v>
+        <f>SUM(F12,F13)</f>
+        <v>545.16</v>
       </c>
       <c r="H12" s="5">
-        <v>717.93</v>
+        <v>545.16</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -873,48 +867,49 @@
         <v>0</v>
       </c>
       <c r="C13" s="2">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="D13" s="2">
-        <v>46</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="E13" s="5">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="8">
         <f t="shared" si="0"/>
-        <v>111.78</v>
+        <v>45.9</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
-        <v>44020</v>
+        <v>44095</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="2">
-        <v>241</v>
+        <v>607</v>
       </c>
       <c r="D14" s="2">
-        <f>SUM(C14,-C12)</f>
-        <v>106</v>
+        <f t="shared" si="1"/>
+        <v>366</v>
       </c>
       <c r="E14" s="5">
         <v>4.71</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" si="0"/>
-        <v>499.26</v>
+        <f t="shared" ref="F14:F15" si="2">PRODUCT(D14,E14)</f>
+        <v>1723.86</v>
       </c>
       <c r="G14" s="5">
         <f>SUM(F14,F15)</f>
-        <v>545.16</v>
+        <v>1930.4099999999999</v>
       </c>
       <c r="H14" s="5">
-        <v>545.16</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -923,25 +918,25 @@
         <v>0</v>
       </c>
       <c r="C15" s="2">
-        <v>64</v>
+        <v>145</v>
       </c>
       <c r="D15" s="2">
-        <f>SUM(C15,-C13)</f>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>81</v>
       </c>
       <c r="E15" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" si="0"/>
-        <v>45.9</v>
+        <f t="shared" si="2"/>
+        <v>206.54999999999998</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
-        <v>44095</v>
+        <v>44123</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
@@ -949,23 +944,23 @@
       <c r="C16" s="2">
         <v>607</v>
       </c>
-      <c r="D16" s="2">
-        <f>SUM(C16,-C14)</f>
-        <v>366</v>
+      <c r="D16" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E16" s="5">
         <v>4.71</v>
       </c>
       <c r="F16" s="8">
-        <f t="shared" ref="F16:F17" si="1">PRODUCT(D16,E16)</f>
-        <v>1723.86</v>
-      </c>
-      <c r="G16" s="5">
+        <f t="shared" ref="F16:F17" si="3">PRODUCT(D16,E16)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="15">
         <f>SUM(F16,F17)</f>
-        <v>1930.4099999999999</v>
+        <v>0</v>
       </c>
       <c r="H16" s="5">
-        <v>2500</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -976,111 +971,66 @@
       <c r="C17" s="2">
         <v>145</v>
       </c>
-      <c r="D17" s="2">
-        <f>SUM(C17,-C15)</f>
-        <v>81</v>
+      <c r="D17" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E17" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" si="1"/>
-        <v>206.54999999999998</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
-        <v>44123</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="16">
-        <v>607</v>
-      </c>
-      <c r="D18" s="16">
-        <f>SUM(C18,-C16)</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="5">
-        <v>4.71</v>
-      </c>
-      <c r="F18" s="8">
-        <f t="shared" ref="F18:F19" si="2">PRODUCT(D18,E18)</f>
-        <v>0</v>
+      <c r="A18" s="3"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="G18" s="5">
-        <f>SUM(F18,F19)</f>
-        <v>0</v>
+        <f>SUM(G2:G17)</f>
+        <v>12045.66</v>
       </c>
       <c r="H18" s="5">
-        <v>500</v>
+        <f>SUM(H2:H17)</f>
+        <v>13123.89</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="16">
-        <v>145</v>
-      </c>
-      <c r="D19" s="16">
-        <f>SUM(C19,-C17)</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="5">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F19" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="A19" s="3"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="5">
-        <f>SUM(G2:G17)</f>
-        <v>13273.36</v>
-      </c>
-      <c r="H20" s="5">
-        <f>SUM(H2:H17)</f>
-        <v>13851.59</v>
+      <c r="H19" s="5">
+        <f>SUM(H18,-G18)</f>
+        <v>1078.2299999999996</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5">
-        <f>SUM(H20,-G20)</f>
-        <v>578.22999999999956</v>
-      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="D21:G21"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/sputnik/personal/ee/67ee.xlsx
+++ b/sputnik/personal/ee/67ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>остаток</t>
+  </si>
+  <si>
+    <t>нет данных</t>
+  </si>
+  <si>
+    <t>Т2</t>
   </si>
 </sst>
 </file>
@@ -58,7 +64,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +108,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -205,7 +218,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -217,7 +230,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -530,7 +543,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="H16" sqref="H3:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -601,7 +614,7 @@
         <v>4557</v>
       </c>
       <c r="D3" s="2">
-        <f>SUM(C3,-C2)</f>
+        <f t="shared" ref="D3:D9" si="0">SUM(C3,-C2)</f>
         <v>237</v>
       </c>
       <c r="E3" s="5">
@@ -629,7 +642,7 @@
         <v>5296</v>
       </c>
       <c r="D4" s="2">
-        <f>SUM(C4,-C3)</f>
+        <f t="shared" si="0"/>
         <v>739</v>
       </c>
       <c r="E4" s="5">
@@ -657,7 +670,7 @@
         <v>5496</v>
       </c>
       <c r="D5" s="2">
-        <f>SUM(C5,-C4)</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="E5" s="5">
@@ -685,7 +698,7 @@
         <v>5691</v>
       </c>
       <c r="D6" s="2">
-        <f>SUM(C6,-C5)</f>
+        <f t="shared" si="0"/>
         <v>195</v>
       </c>
       <c r="E6" s="10">
@@ -711,14 +724,14 @@
         <v>5891</v>
       </c>
       <c r="D7" s="2">
-        <f>SUM(C7,-C6)</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="E7" s="5">
         <v>4.49</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" ref="F7:F13" si="0">PRODUCT(D7,E7)</f>
+        <f t="shared" ref="F7:F13" si="1">PRODUCT(D7,E7)</f>
         <v>898</v>
       </c>
       <c r="G7" s="5">
@@ -739,14 +752,14 @@
         <v>6091</v>
       </c>
       <c r="D8" s="2">
-        <f>SUM(C8,-C7)</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="E8" s="5">
         <v>4.49</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>898</v>
       </c>
       <c r="G8" s="5">
@@ -767,14 +780,14 @@
         <v>6291</v>
       </c>
       <c r="D9" s="2">
-        <f>SUM(C9,-C8)</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="E9" s="5">
         <v>4.49</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>898</v>
       </c>
       <c r="G9" s="5">
@@ -801,7 +814,7 @@
         <v>4.49</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>606.15</v>
       </c>
       <c r="G10" s="5">
@@ -814,7 +827,7 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2">
         <v>46</v>
@@ -826,7 +839,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F11" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>111.78</v>
       </c>
       <c r="G11" s="5"/>
@@ -843,14 +856,14 @@
         <v>241</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" ref="D12:D17" si="1">SUM(C12,-C10)</f>
+        <f t="shared" ref="D12:D17" si="2">SUM(C12,-C10)</f>
         <v>106</v>
       </c>
       <c r="E12" s="5">
         <v>4.71</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>499.26</v>
       </c>
       <c r="G12" s="5">
@@ -864,20 +877,20 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C13" s="2">
         <v>64</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="E13" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45.9</v>
       </c>
       <c r="G13" s="5"/>
@@ -894,14 +907,14 @@
         <v>607</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>366</v>
       </c>
       <c r="E14" s="5">
         <v>4.71</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" ref="F14:F15" si="2">PRODUCT(D14,E14)</f>
+        <f t="shared" ref="F14:F15" si="3">PRODUCT(D14,E14)</f>
         <v>1723.86</v>
       </c>
       <c r="G14" s="5">
@@ -915,20 +928,20 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C15" s="2">
         <v>145</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
       <c r="E15" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>206.54999999999998</v>
       </c>
       <c r="G15" s="5"/>
@@ -942,20 +955,18 @@
         <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>607</v>
-      </c>
-      <c r="D16" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="E16" s="5">
         <v>4.71</v>
       </c>
       <c r="F16" s="8">
-        <f t="shared" ref="F16:F17" si="3">PRODUCT(D16,E16)</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="15">
+        <v>0</v>
+      </c>
+      <c r="G16" s="11">
         <f>SUM(F16,F17)</f>
         <v>0</v>
       </c>
@@ -966,20 +977,18 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C17" s="2">
-        <v>145</v>
-      </c>
-      <c r="D17" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="E17" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G17" s="5"/>

--- a/sputnik/personal/ee/67ee.xlsx
+++ b/sputnik/personal/ee/67ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -188,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -221,6 +221,12 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -229,9 +235,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -540,10 +543,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H3:H16"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -856,7 +859,7 @@
         <v>241</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" ref="D12:D17" si="2">SUM(C12,-C10)</f>
+        <f t="shared" ref="D12:D15" si="2">SUM(C12,-C10)</f>
         <v>106</v>
       </c>
       <c r="E12" s="5">
@@ -957,7 +960,7 @@
       <c r="C16" s="2">
         <v>0</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="12" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="5">
@@ -982,7 +985,7 @@
       <c r="C17" s="2">
         <v>0</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="12" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="5">
@@ -995,47 +998,145 @@
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="5" t="s">
+      <c r="A18" s="9">
+        <v>44333</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>695</v>
+      </c>
+      <c r="D18" s="13">
+        <v>88</v>
+      </c>
+      <c r="E18" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" ref="F18:F19" si="4">PRODUCT(D18,E18)</f>
+        <v>414.48</v>
+      </c>
+      <c r="G18" s="11">
+        <f>SUM(F18,F19)</f>
+        <v>470.58000000000004</v>
+      </c>
+      <c r="H18" s="5">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2">
+        <v>167</v>
+      </c>
+      <c r="D19" s="12">
+        <v>22</v>
+      </c>
+      <c r="E19" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="4"/>
+        <v>56.099999999999994</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>44362</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>865</v>
+      </c>
+      <c r="D20" s="13">
+        <v>88</v>
+      </c>
+      <c r="E20" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" ref="F20:F21" si="5">PRODUCT(D20,E20)</f>
+        <v>414.48</v>
+      </c>
+      <c r="G20" s="11">
+        <f>SUM(F20,F21)</f>
+        <v>470.58000000000004</v>
+      </c>
+      <c r="H20" s="5">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2">
+        <v>187</v>
+      </c>
+      <c r="D21" s="12">
+        <v>22</v>
+      </c>
+      <c r="E21" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="5"/>
+        <v>56.099999999999994</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G22" s="5">
         <f>SUM(G2:G17)</f>
         <v>12045.66</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H22" s="5">
         <f>SUM(H2:H17)</f>
         <v>13123.89</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="5" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5">
-        <f>SUM(H18,-G18)</f>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5">
+        <f>SUM(H22,-G22)</f>
         <v>1078.2299999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D21" s="12"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="14"/>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D25" s="14"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D25:G25"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/67ee.xlsx
+++ b/sputnik/personal/ee/67ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -543,10 +543,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1096,47 +1096,96 @@
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="5" t="s">
+      <c r="A22" s="9">
+        <v>44379</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1015</v>
+      </c>
+      <c r="D22" s="13">
+        <f>SUM(C22,-C20)</f>
+        <v>150</v>
+      </c>
+      <c r="E22" s="5">
+        <v>4.96</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" ref="F22:F23" si="6">PRODUCT(D22,E22)</f>
+        <v>744</v>
+      </c>
+      <c r="G22" s="11">
+        <f>SUM(F22,F23)</f>
+        <v>1076.32</v>
+      </c>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2">
+        <v>311</v>
+      </c>
+      <c r="D23" s="13">
+        <f>SUM(C23,-C21)</f>
+        <v>124</v>
+      </c>
+      <c r="E23" s="5">
+        <v>2.68</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" si="6"/>
+        <v>332.32</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="5">
-        <f>SUM(G2:G17)</f>
-        <v>12045.66</v>
-      </c>
-      <c r="H22" s="5">
-        <f>SUM(H2:H17)</f>
-        <v>13123.89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="5" t="s">
+      <c r="G24" s="5">
+        <f>SUM(G2:G23)</f>
+        <v>14063.14</v>
+      </c>
+      <c r="H24" s="5">
+        <f>SUM(H2:H23)</f>
+        <v>14823.89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5">
-        <f>SUM(H22,-G22)</f>
-        <v>1078.2299999999996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D25" s="14"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="16"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5">
+        <f>SUM(H24,-G24)</f>
+        <v>760.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D27" s="14"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D27:G27"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/67ee.xlsx
+++ b/sputnik/personal/ee/67ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -116,12 +116,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -215,9 +221,6 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -235,6 +238,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,10 +549,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -590,241 +596,227 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>43232</v>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
+        <v>44379</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4">
-        <v>4320</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
+      <c r="C2" s="2">
+        <v>1015</v>
+      </c>
+      <c r="D2" s="12">
+        <f>SUM(C2,-C4)</f>
+        <v>150</v>
+      </c>
+      <c r="E2" s="5">
+        <v>4.96</v>
+      </c>
+      <c r="F2" s="8">
+        <f t="shared" ref="F2:F7" si="0">PRODUCT(D2,E2)</f>
+        <v>744</v>
+      </c>
+      <c r="G2" s="10">
+        <f>SUM(F2,F3)</f>
+        <v>1076.32</v>
+      </c>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>43323</v>
-      </c>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
       <c r="B3" s="2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2">
-        <v>4557</v>
-      </c>
-      <c r="D3" s="2">
-        <f t="shared" ref="D3:D9" si="0">SUM(C3,-C2)</f>
-        <v>237</v>
+        <v>311</v>
+      </c>
+      <c r="D3" s="12">
+        <f>SUM(C3,-C5)</f>
+        <v>124</v>
       </c>
       <c r="E3" s="5">
-        <v>4.5</v>
+        <v>2.68</v>
       </c>
       <c r="F3" s="8">
-        <f>PRODUCT(D3,E3)</f>
-        <v>1066.5</v>
-      </c>
-      <c r="G3" s="5">
-        <v>1066.5</v>
-      </c>
-      <c r="H3" s="5">
-        <v>1066.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>332.32</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
-        <v>43734</v>
+        <v>44362</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>5296</v>
-      </c>
-      <c r="D4" s="2">
+        <v>865</v>
+      </c>
+      <c r="D4" s="12">
+        <v>88</v>
+      </c>
+      <c r="E4" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F4" s="8">
         <f t="shared" si="0"/>
-        <v>739</v>
-      </c>
-      <c r="E4" s="5">
-        <v>4.49</v>
-      </c>
-      <c r="F4" s="8">
-        <f>PRODUCT(D4,E4)</f>
-        <v>3318.11</v>
-      </c>
-      <c r="G4" s="5">
-        <v>3318.11</v>
+        <v>414.48</v>
+      </c>
+      <c r="G4" s="10">
+        <f>SUM(F4,F5)</f>
+        <v>470.58000000000004</v>
       </c>
       <c r="H4" s="5">
-        <v>3322</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>43927</v>
-      </c>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
       <c r="B5" s="2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2">
-        <v>5496</v>
-      </c>
-      <c r="D5" s="2">
+        <v>187</v>
+      </c>
+      <c r="D5" s="11">
+        <v>22</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F5" s="8">
         <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="E5" s="5">
-        <v>4.49</v>
-      </c>
-      <c r="F5" s="8">
-        <f>PRODUCT(D5,E5)</f>
-        <v>898</v>
-      </c>
-      <c r="G5" s="5">
-        <v>898</v>
-      </c>
-      <c r="H5" s="5">
-        <v>1772.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>56.099999999999994</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
-        <v>43927</v>
+        <v>44333</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>5691</v>
-      </c>
-      <c r="D6" s="2">
+        <v>695</v>
+      </c>
+      <c r="D6" s="12">
+        <v>88</v>
+      </c>
+      <c r="E6" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F6" s="8">
         <f t="shared" si="0"/>
-        <v>195</v>
-      </c>
-      <c r="E6" s="10">
-        <v>4.49</v>
-      </c>
-      <c r="F6" s="8">
-        <f>PRODUCT(D6,E6)</f>
-        <v>875.55000000000007</v>
-      </c>
-      <c r="G6" s="5">
-        <v>875.55</v>
-      </c>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>43934</v>
-      </c>
+        <v>414.48</v>
+      </c>
+      <c r="G6" s="10">
+        <f>SUM(F6,F7)</f>
+        <v>470.58000000000004</v>
+      </c>
+      <c r="H6" s="5">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
       <c r="B7" s="2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2">
-        <v>5891</v>
-      </c>
-      <c r="D7" s="2">
+        <v>167</v>
+      </c>
+      <c r="D7" s="11">
+        <v>22</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F7" s="8">
         <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="E7" s="5">
-        <v>4.49</v>
-      </c>
-      <c r="F7" s="8">
-        <f t="shared" ref="F7:F13" si="1">PRODUCT(D7,E7)</f>
-        <v>898</v>
-      </c>
-      <c r="G7" s="5">
-        <v>898</v>
-      </c>
-      <c r="H7" s="5">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>56.099999999999994</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
-        <v>43941</v>
+        <v>44123</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>6091</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <v>0</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="E8" s="5">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" si="1"/>
-        <v>898</v>
-      </c>
-      <c r="G8" s="5">
-        <v>898</v>
+        <v>0</v>
+      </c>
+      <c r="G8" s="10">
+        <f>SUM(F8,F9)</f>
+        <v>0</v>
       </c>
       <c r="H8" s="5">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>43948</v>
-      </c>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
       <c r="B9" s="2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2">
-        <v>6291</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <v>0</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="E9" s="5">
-        <v>4.49</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="1"/>
-        <v>898</v>
-      </c>
-      <c r="G9" s="5">
-        <v>898</v>
-      </c>
-      <c r="H9" s="5">
-        <v>900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
-        <v>43984</v>
+        <v>44095</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>135</v>
+        <v>607</v>
       </c>
       <c r="D10" s="2">
-        <v>135</v>
+        <f>SUM(C10,-C12)</f>
+        <v>366</v>
       </c>
       <c r="E10" s="5">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" si="1"/>
-        <v>606.15</v>
+        <f t="shared" ref="F10:F11" si="1">PRODUCT(D10,E10)</f>
+        <v>1723.86</v>
       </c>
       <c r="G10" s="5">
-        <v>717.93</v>
+        <f>SUM(F10,F11)</f>
+        <v>1930.4099999999999</v>
       </c>
       <c r="H10" s="5">
-        <v>717.93</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -833,17 +825,18 @@
         <v>12</v>
       </c>
       <c r="C11" s="2">
-        <v>46</v>
+        <v>145</v>
       </c>
       <c r="D11" s="2">
-        <v>46</v>
+        <f>SUM(C11,-C13)</f>
+        <v>81</v>
       </c>
       <c r="E11" s="5">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="8">
         <f t="shared" si="1"/>
-        <v>111.78</v>
+        <v>206.54999999999998</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -858,24 +851,11 @@
       <c r="C12" s="2">
         <v>241</v>
       </c>
-      <c r="D12" s="2">
-        <f t="shared" ref="D12:D15" si="2">SUM(C12,-C10)</f>
-        <v>106</v>
-      </c>
-      <c r="E12" s="5">
-        <v>4.71</v>
-      </c>
-      <c r="F12" s="8">
-        <f t="shared" si="1"/>
-        <v>499.26</v>
-      </c>
-      <c r="G12" s="5">
-        <f>SUM(F12,F13)</f>
-        <v>545.16</v>
-      </c>
-      <c r="H12" s="5">
-        <v>545.16</v>
-      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
@@ -885,307 +865,56 @@
       <c r="C13" s="2">
         <v>64</v>
       </c>
-      <c r="D13" s="2">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="E13" s="5">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F13" s="8">
-        <f t="shared" si="1"/>
-        <v>45.9</v>
-      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="8"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="H13" s="5">
+        <v>8.64</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <v>44095</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2">
-        <v>607</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" si="2"/>
-        <v>366</v>
-      </c>
-      <c r="E14" s="5">
-        <v>4.71</v>
-      </c>
-      <c r="F14" s="8">
-        <f t="shared" ref="F14:F15" si="3">PRODUCT(D14,E14)</f>
-        <v>1723.86</v>
+      <c r="A14" s="3"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="G14" s="5">
-        <f>SUM(F14,F15)</f>
-        <v>1930.4099999999999</v>
+        <f>SUM(G2:G13)</f>
+        <v>3947.89</v>
       </c>
       <c r="H14" s="5">
-        <v>2500</v>
+        <f>SUM(H2:H13)</f>
+        <v>4708.6400000000003</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="2">
-        <v>145</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="2"/>
-        <v>81</v>
-      </c>
-      <c r="E15" s="5">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F15" s="8">
-        <f t="shared" si="3"/>
-        <v>206.54999999999998</v>
+      <c r="A15" s="3"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
-        <v>44123</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="5">
-        <v>4.71</v>
-      </c>
-      <c r="F16" s="8">
-        <v>0</v>
-      </c>
-      <c r="G16" s="11">
-        <f>SUM(F16,F17)</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="5">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F17" s="8">
-        <v>0</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
-        <v>44333</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2">
-        <v>695</v>
-      </c>
-      <c r="D18" s="13">
-        <v>88</v>
-      </c>
-      <c r="E18" s="5">
-        <v>4.71</v>
-      </c>
-      <c r="F18" s="8">
-        <f t="shared" ref="F18:F19" si="4">PRODUCT(D18,E18)</f>
-        <v>414.48</v>
-      </c>
-      <c r="G18" s="11">
-        <f>SUM(F18,F19)</f>
-        <v>470.58000000000004</v>
-      </c>
-      <c r="H18" s="5">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="2">
-        <v>167</v>
-      </c>
-      <c r="D19" s="12">
-        <v>22</v>
-      </c>
-      <c r="E19" s="5">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F19" s="8">
-        <f t="shared" si="4"/>
-        <v>56.099999999999994</v>
-      </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
-        <v>44362</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="2">
-        <v>865</v>
-      </c>
-      <c r="D20" s="13">
-        <v>88</v>
-      </c>
-      <c r="E20" s="5">
-        <v>4.71</v>
-      </c>
-      <c r="F20" s="8">
-        <f t="shared" ref="F20:F21" si="5">PRODUCT(D20,E20)</f>
-        <v>414.48</v>
-      </c>
-      <c r="G20" s="11">
-        <f>SUM(F20,F21)</f>
-        <v>470.58000000000004</v>
-      </c>
-      <c r="H20" s="5">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="2">
-        <v>187</v>
-      </c>
-      <c r="D21" s="12">
-        <v>22</v>
-      </c>
-      <c r="E21" s="5">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F21" s="8">
-        <f t="shared" si="5"/>
-        <v>56.099999999999994</v>
-      </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
-        <v>44379</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1015</v>
-      </c>
-      <c r="D22" s="13">
-        <f>SUM(C22,-C20)</f>
-        <v>150</v>
-      </c>
-      <c r="E22" s="5">
-        <v>4.96</v>
-      </c>
-      <c r="F22" s="8">
-        <f t="shared" ref="F22:F23" si="6">PRODUCT(D22,E22)</f>
-        <v>744</v>
-      </c>
-      <c r="G22" s="11">
-        <f>SUM(F22,F23)</f>
-        <v>1076.32</v>
-      </c>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="2">
-        <v>311</v>
-      </c>
-      <c r="D23" s="13">
-        <f>SUM(C23,-C21)</f>
-        <v>124</v>
-      </c>
-      <c r="E23" s="5">
-        <v>2.68</v>
-      </c>
-      <c r="F23" s="8">
-        <f t="shared" si="6"/>
-        <v>332.32</v>
-      </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="5">
-        <f>SUM(G2:G23)</f>
-        <v>14063.14</v>
-      </c>
-      <c r="H24" s="5">
-        <f>SUM(H2:H23)</f>
-        <v>14823.89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5">
-        <f>SUM(H24,-G24)</f>
-        <v>760.75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D27" s="14"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="16"/>
+      <c r="H15" s="5">
+        <f>SUM(H14,-G14)</f>
+        <v>760.75000000000045</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D17:G17"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/67ee.xlsx
+++ b/sputnik/personal/ee/67ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -116,7 +116,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,6 +126,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -194,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -230,6 +236,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -238,9 +250,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -549,10 +558,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -597,31 +606,33 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
-        <v>44379</v>
+      <c r="A2" s="13">
+        <v>44536</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>1015</v>
+        <v>1603</v>
       </c>
       <c r="D2" s="12">
-        <f>SUM(C2,-C4)</f>
-        <v>150</v>
+        <f t="shared" ref="D2:D9" si="0">SUM(C2,-C4)</f>
+        <v>164</v>
       </c>
       <c r="E2" s="5">
         <v>4.96</v>
       </c>
       <c r="F2" s="8">
-        <f t="shared" ref="F2:F7" si="0">PRODUCT(D2,E2)</f>
-        <v>744</v>
+        <f t="shared" ref="F2:F3" si="1">PRODUCT(D2,E2)</f>
+        <v>813.43999999999994</v>
       </c>
       <c r="G2" s="10">
         <f>SUM(F2,F3)</f>
-        <v>1076.32</v>
-      </c>
-      <c r="H2" s="5"/>
+        <v>998.3599999999999</v>
+      </c>
+      <c r="H2" s="5">
+        <v>910</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
@@ -629,48 +640,49 @@
         <v>12</v>
       </c>
       <c r="C3" s="2">
-        <v>311</v>
+        <v>479</v>
       </c>
       <c r="D3" s="12">
-        <f>SUM(C3,-C5)</f>
-        <v>124</v>
+        <f t="shared" si="0"/>
+        <v>69</v>
       </c>
       <c r="E3" s="5">
         <v>2.68</v>
       </c>
       <c r="F3" s="8">
-        <f t="shared" si="0"/>
-        <v>332.32</v>
+        <f t="shared" si="1"/>
+        <v>184.92000000000002</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>44362</v>
+      <c r="A4" s="14">
+        <v>44515</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>865</v>
+        <v>1439</v>
       </c>
       <c r="D4" s="12">
-        <v>88</v>
+        <f t="shared" si="0"/>
+        <v>170</v>
       </c>
       <c r="E4" s="5">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" si="0"/>
-        <v>414.48</v>
+        <f t="shared" ref="F4:F5" si="2">PRODUCT(D4,E4)</f>
+        <v>843.2</v>
       </c>
       <c r="G4" s="10">
         <f>SUM(F4,F5)</f>
-        <v>470.58000000000004</v>
+        <v>843.2</v>
       </c>
       <c r="H4" s="5">
-        <v>850</v>
+        <v>924</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -679,47 +691,49 @@
         <v>12</v>
       </c>
       <c r="C5" s="2">
-        <v>187</v>
-      </c>
-      <c r="D5" s="11">
-        <v>22</v>
+        <v>410</v>
+      </c>
+      <c r="D5" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E5" s="5">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="0"/>
-        <v>56.099999999999994</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>44333</v>
+      <c r="A6" s="14">
+        <v>44508</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>695</v>
+        <v>1269</v>
       </c>
       <c r="D6" s="12">
-        <v>88</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="E6" s="5">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" si="0"/>
-        <v>414.48</v>
+        <f t="shared" ref="F6:F7" si="3">PRODUCT(D6,E6)</f>
+        <v>496</v>
       </c>
       <c r="G6" s="10">
         <f>SUM(F6,F7)</f>
-        <v>470.58000000000004</v>
+        <v>764</v>
       </c>
       <c r="H6" s="5">
-        <v>850</v>
+        <v>794</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -728,47 +742,48 @@
         <v>12</v>
       </c>
       <c r="C7" s="2">
-        <v>167</v>
-      </c>
-      <c r="D7" s="11">
-        <v>22</v>
+        <v>410</v>
+      </c>
+      <c r="D7" s="12">
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="E7" s="5">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="0"/>
-        <v>56.099999999999994</v>
+        <f t="shared" si="3"/>
+        <v>268</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>44123</v>
+      <c r="A8" s="14">
+        <v>44379</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>11</v>
+        <v>1169</v>
+      </c>
+      <c r="D8" s="12">
+        <f t="shared" si="0"/>
+        <v>304</v>
       </c>
       <c r="E8" s="5">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F8" s="8">
-        <v>0</v>
+        <f t="shared" ref="F8:F13" si="4">PRODUCT(D8,E8)</f>
+        <v>1507.84</v>
       </c>
       <c r="G8" s="10">
         <f>SUM(F8,F9)</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
-        <v>500</v>
-      </c>
+        <v>1837.48</v>
+      </c>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
@@ -776,47 +791,48 @@
         <v>12</v>
       </c>
       <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>11</v>
+        <v>310</v>
+      </c>
+      <c r="D9" s="12">
+        <f t="shared" si="0"/>
+        <v>123</v>
       </c>
       <c r="E9" s="5">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F9" s="8">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>329.64000000000004</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
-        <v>44095</v>
+        <v>44362</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>607</v>
-      </c>
-      <c r="D10" s="2">
-        <f>SUM(C10,-C12)</f>
-        <v>366</v>
+        <v>865</v>
+      </c>
+      <c r="D10" s="12">
+        <v>88</v>
       </c>
       <c r="E10" s="5">
         <v>4.71</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" ref="F10:F11" si="1">PRODUCT(D10,E10)</f>
-        <v>1723.86</v>
-      </c>
-      <c r="G10" s="5">
+        <f t="shared" si="4"/>
+        <v>414.48</v>
+      </c>
+      <c r="G10" s="10">
         <f>SUM(F10,F11)</f>
-        <v>1930.4099999999999</v>
+        <v>470.58000000000004</v>
       </c>
       <c r="H10" s="5">
-        <v>2500</v>
+        <v>850</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -825,37 +841,48 @@
         <v>12</v>
       </c>
       <c r="C11" s="2">
-        <v>145</v>
-      </c>
-      <c r="D11" s="2">
-        <f>SUM(C11,-C13)</f>
-        <v>81</v>
+        <v>187</v>
+      </c>
+      <c r="D11" s="11">
+        <v>22</v>
       </c>
       <c r="E11" s="5">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="8">
-        <f t="shared" si="1"/>
-        <v>206.54999999999998</v>
+        <f t="shared" si="4"/>
+        <v>56.099999999999994</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
-        <v>44020</v>
+        <v>44333</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>241</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+        <v>695</v>
+      </c>
+      <c r="D12" s="12">
+        <v>88</v>
+      </c>
+      <c r="E12" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="4"/>
+        <v>414.48</v>
+      </c>
+      <c r="G12" s="10">
+        <f>SUM(F12,F13)</f>
+        <v>470.58000000000004</v>
+      </c>
+      <c r="H12" s="5">
+        <v>850</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
@@ -863,58 +890,193 @@
         <v>12</v>
       </c>
       <c r="C13" s="2">
+        <v>167</v>
+      </c>
+      <c r="D13" s="11">
+        <v>22</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="4"/>
+        <v>56.099999999999994</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>44123</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="10">
+        <f>SUM(F14,F15)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>44095</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>607</v>
+      </c>
+      <c r="D16" s="2">
+        <f>SUM(C16,-C18)</f>
+        <v>366</v>
+      </c>
+      <c r="E16" s="5">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" ref="F16:F17" si="5">PRODUCT(D16,E16)</f>
+        <v>1723.86</v>
+      </c>
+      <c r="G16" s="5">
+        <f>SUM(F16,F17)</f>
+        <v>1930.4099999999999</v>
+      </c>
+      <c r="H16" s="5">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2">
+        <v>145</v>
+      </c>
+      <c r="D17" s="2">
+        <f>SUM(C17,-C19)</f>
+        <v>81</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="5"/>
+        <v>206.54999999999998</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>44020</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>241</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2">
         <v>64</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5">
+      <c r="D19" s="2"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5">
         <v>8.64</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="5" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="5">
-        <f>SUM(G2:G13)</f>
-        <v>3947.89</v>
-      </c>
-      <c r="H14" s="5">
-        <f>SUM(H2:H13)</f>
-        <v>4708.6400000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="5" t="s">
+      <c r="G20" s="5">
+        <f>SUM(G2:G19)</f>
+        <v>7314.61</v>
+      </c>
+      <c r="H20" s="5">
+        <f>SUM(H2:H19)</f>
+        <v>7336.64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5">
-        <f>SUM(H14,-G14)</f>
-        <v>760.75000000000045</v>
-      </c>
-    </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5">
+        <f>SUM(H20,-G20)</f>
+        <v>22.030000000000655</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D23" s="15"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D23:G23"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
